--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_UnCiv_004.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_UnCiv_004.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="588" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="642" uniqueCount="123">
   <si>
     <t>Sezione</t>
   </si>
@@ -363,6 +363,24 @@
   </si>
   <si>
     <t>codiceFiscale</t>
+  </si>
+  <si>
+    <t>Autorità mittente</t>
+  </si>
+  <si>
+    <t>evento.trascrizioneUnioneCivile.atto.enteEstero</t>
+  </si>
+  <si>
+    <t>Anagrafica Consolato</t>
+  </si>
+  <si>
+    <t>idAnagraficaConsolato</t>
+  </si>
+  <si>
+    <t>Anagrafica Consolato - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeAnagraficaConsolato</t>
   </si>
 </sst>
 </file>
@@ -421,7 +439,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G98"/>
+  <dimension ref="A1:G107"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -431,7 +449,7 @@
     <col min="2" max="2" width="46.39453125" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.5625" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="49.7578125" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="22.68359375" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="24.66796875" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
@@ -2395,6 +2413,186 @@
         <v>9</v>
       </c>
     </row>
+    <row r="99">
+      <c r="A99" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E99" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F99" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E100" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="F100" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E101" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F101" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E102" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F102" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E103" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="F103" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E104" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F104" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D105" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E105" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="F105" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E106" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="F106" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E107" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="F107" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_UnCiv_004.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_UnCiv_004.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="642" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="749" uniqueCount="125">
   <si>
     <t>Sezione</t>
   </si>
@@ -32,6 +32,9 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
+    <t>Condizioni obbligatorieta'</t>
+  </si>
+  <si>
     <t>Allegati</t>
   </si>
   <si>
@@ -90,6 +93,9 @@
   </si>
   <si>
     <t>numeroatto</t>
+  </si>
+  <si>
+    <t>obbligatoria</t>
   </si>
   <si>
     <t>Data formazione</t>
@@ -439,7 +445,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G107"/>
+  <dimension ref="A1:H107"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -451,6 +457,7 @@
     <col min="4" max="4" width="49.7578125" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="24.66796875" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="24.609375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -472,225 +479,261 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="13">
@@ -712,1885 +755,2170 @@
       <c r="F13" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G13" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B19" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D19" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C19" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>34</v>
-      </c>
       <c r="E19" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B23" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D23" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C23" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="E23" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B65" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="B65" s="2" t="s">
-        <v>86</v>
-      </c>
       <c r="C65" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D65" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E65" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="E65" s="2" t="s">
-        <v>87</v>
-      </c>
       <c r="F65" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B67" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D67" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="C67" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D67" s="2" t="s">
-        <v>92</v>
-      </c>
       <c r="E67" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G67" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G68" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G69" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G70" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G71" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
+      </c>
+      <c r="G72" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G73" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
+      </c>
+      <c r="G74" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
+      </c>
+      <c r="G75" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
+      </c>
+      <c r="G76" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G77" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G78" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
+      </c>
+      <c r="G79" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
+      </c>
+      <c r="G80" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G81" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G82" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G83" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
+      </c>
+      <c r="G84" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G85" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
+      </c>
+      <c r="G86" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G87" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G88" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G89" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G90" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G91" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
+      </c>
+      <c r="G92" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G93" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
+      </c>
+      <c r="G94" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
+      </c>
+      <c r="G95" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G96" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G97" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G98" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G99" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G100" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G101" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G102" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G103" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G104" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G105" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G106" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G107" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_UnCiv_004.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_UnCiv_004.xlsx
@@ -32,7 +32,7 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
-    <t>Condizioni obbligatorieta'</t>
+    <t>Si puo' ignorare la sezione per</t>
   </si>
   <si>
     <t>Allegati</t>
@@ -457,7 +457,7 @@
     <col min="4" max="4" width="49.7578125" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="24.66796875" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="24.609375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="28.44921875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_UnCiv_004.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_UnCiv_004.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="749" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="749" uniqueCount="126">
   <si>
     <t>Sezione</t>
   </si>
@@ -32,55 +32,58 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
+    <t>Condizioni obbligatorieta'</t>
+  </si>
+  <si>
+    <t>Allegati</t>
+  </si>
+  <si>
+    <t>Richiesta di trascrizione</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Atto di costituzione di unione civile</t>
+  </si>
+  <si>
+    <t>SI</t>
+  </si>
+  <si>
+    <t>Traduzione dell'atto di costituzione di unione civile</t>
+  </si>
+  <si>
+    <t>Formula</t>
+  </si>
+  <si>
+    <t>193-quater</t>
+  </si>
+  <si>
+    <t>193-quinquies</t>
+  </si>
+  <si>
+    <t>194</t>
+  </si>
+  <si>
+    <t>195</t>
+  </si>
+  <si>
+    <t>196</t>
+  </si>
+  <si>
+    <t>197</t>
+  </si>
+  <si>
+    <t>198</t>
+  </si>
+  <si>
+    <t>199</t>
+  </si>
+  <si>
     <t>Si puo' ignorare la sezione per</t>
-  </si>
-  <si>
-    <t>Allegati</t>
-  </si>
-  <si>
-    <t>Richiesta di trascrizione</t>
-  </si>
-  <si>
-    <t>NO</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>Atto di costituzione di unione civile</t>
-  </si>
-  <si>
-    <t>SI</t>
-  </si>
-  <si>
-    <t>Traduzione dell'atto di costituzione di unione civile</t>
-  </si>
-  <si>
-    <t>Formula</t>
-  </si>
-  <si>
-    <t>193-quater</t>
-  </si>
-  <si>
-    <t>193-quinquies</t>
-  </si>
-  <si>
-    <t>194</t>
-  </si>
-  <si>
-    <t>195</t>
-  </si>
-  <si>
-    <t>196</t>
-  </si>
-  <si>
-    <t>197</t>
-  </si>
-  <si>
-    <t>198</t>
-  </si>
-  <si>
-    <t>199</t>
   </si>
   <si>
     <t>Formazione atto</t>
@@ -756,2169 +759,2169 @@
         <v>5</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E65" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="B65" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D65" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E65" s="2" t="s">
-        <v>89</v>
-      </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B106" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D106" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="C106" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D106" s="2" t="s">
-        <v>120</v>
-      </c>
       <c r="E106" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_UnCiv_004.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_UnCiv_004.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="749" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="588" uniqueCount="122">
   <si>
     <t>Sezione</t>
   </si>
@@ -360,18 +360,6 @@
   </si>
   <si>
     <t>comuneEstero</t>
-  </si>
-  <si>
-    <t>Richiedente</t>
-  </si>
-  <si>
-    <t>Codice Fiscale</t>
-  </si>
-  <si>
-    <t>evento.dichiarante</t>
-  </si>
-  <si>
-    <t>codiceFiscale</t>
   </si>
   <si>
     <t>Autorità mittente</t>
@@ -448,7 +436,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H107"/>
+  <dimension ref="A1:H84"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -2193,19 +2181,19 @@
         <v>116</v>
       </c>
       <c r="B76" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D76" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C76" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D76" s="2" t="s">
-        <v>118</v>
-      </c>
       <c r="E76" s="2" t="s">
-        <v>119</v>
+        <v>100</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>109</v>
+        <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
         <v>28</v>
@@ -2216,16 +2204,16 @@
         <v>116</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>46</v>
+        <v>101</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>48</v>
+        <v>102</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2239,16 +2227,16 @@
         <v>116</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>49</v>
+        <v>103</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>50</v>
+        <v>104</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2262,19 +2250,19 @@
         <v>116</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>51</v>
+        <v>105</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>52</v>
+        <v>106</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>109</v>
+        <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
         <v>28</v>
@@ -2285,19 +2273,19 @@
         <v>116</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>53</v>
+        <v>107</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>54</v>
+        <v>108</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>109</v>
+        <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
         <v>28</v>
@@ -2308,16 +2296,16 @@
         <v>116</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>55</v>
+        <v>110</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>56</v>
+        <v>111</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2331,16 +2319,16 @@
         <v>116</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>57</v>
+        <v>112</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>58</v>
+        <v>113</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2354,16 +2342,16 @@
         <v>116</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>59</v>
+        <v>118</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>60</v>
+        <v>119</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2377,550 +2365,21 @@
         <v>116</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>61</v>
+        <v>120</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>62</v>
+        <v>121</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>109</v>
+        <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="B85" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C85" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D85" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="E85" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="F85" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G85" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="B86" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C86" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D86" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="E86" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="F86" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="G86" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="B87" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C87" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D87" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="E87" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="F87" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G87" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="B88" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C88" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D88" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="E88" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="F88" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G88" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="B89" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C89" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D89" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="E89" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="F89" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G89" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="B90" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C90" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D90" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="E90" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="F90" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G90" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="B91" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="C91" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D91" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="E91" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="F91" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G91" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="B92" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="C92" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D92" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="E92" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="F92" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="G92" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="B93" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C93" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D93" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="E93" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="F93" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G93" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="B94" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="C94" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D94" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="E94" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="F94" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="G94" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="B95" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C95" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D95" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="E95" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="F95" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="G95" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="B96" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C96" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D96" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="E96" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="F96" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G96" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="B97" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="C97" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D97" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="E97" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="F97" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G97" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="B98" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="C98" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D98" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="E98" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="F98" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G98" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="B99" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="C99" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D99" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="E99" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="F99" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G99" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="B100" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="C100" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D100" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="E100" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="F100" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G100" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="B101" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="C101" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D101" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="E101" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="F101" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G101" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="B102" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="C102" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D102" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="E102" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="F102" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G102" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="B103" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="C103" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D103" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="E103" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="F103" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G103" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="B104" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="C104" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D104" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="E104" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="F104" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G104" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="B105" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="C105" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D105" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="E105" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="F105" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G105" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="B106" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="C106" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D106" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="E106" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="F106" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G106" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="B107" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="C107" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D107" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="E107" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="F107" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G107" s="2" t="s">
         <v>28</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_UnCiv_004.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_UnCiv_004.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="588" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="123">
   <si>
     <t>Sezione</t>
   </si>
@@ -215,6 +215,12 @@
     <t>nomeComuneNascita</t>
   </si>
   <si>
+    <t>Località estera</t>
+  </si>
+  <si>
+    <t>localitaEsteraNascita</t>
+  </si>
+  <si>
     <t>Nazionalita</t>
   </si>
   <si>
@@ -354,9 +360,6 @@
   </si>
   <si>
     <t>nomeComuneEnte</t>
-  </si>
-  <si>
-    <t>Comune estero</t>
   </si>
   <si>
     <t>comuneEstero</t>
@@ -436,7 +439,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H84"/>
+  <dimension ref="A1:H86"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1172,7 +1175,7 @@
         <v>67</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>47</v>
@@ -1264,7 +1267,7 @@
         <v>75</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>47</v>
@@ -1379,7 +1382,7 @@
         <v>85</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>47</v>
@@ -1442,19 +1445,19 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B44" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="B44" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="C44" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D44" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E44" s="2" t="s">
         <v>92</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>48</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
@@ -1465,19 +1468,19 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
@@ -1488,19 +1491,19 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
@@ -1511,19 +1514,19 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
@@ -1534,19 +1537,19 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
@@ -1557,19 +1560,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -1580,19 +1583,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1603,19 +1606,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1626,19 +1629,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1649,19 +1652,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1672,19 +1675,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1695,19 +1698,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1718,19 +1721,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1741,19 +1744,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1764,19 +1767,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -1787,19 +1790,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1810,19 +1813,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -1833,19 +1836,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -1856,19 +1859,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -1879,19 +1882,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -1902,19 +1905,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -1925,19 +1928,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -1951,16 +1954,16 @@
         <v>93</v>
       </c>
       <c r="B66" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D66" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="C66" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D66" s="2" t="s">
-        <v>95</v>
-      </c>
       <c r="E66" s="2" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -1974,16 +1977,16 @@
         <v>93</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -1994,19 +1997,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2017,19 +2020,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2040,19 +2043,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2063,19 +2066,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2086,22 +2089,22 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>109</v>
+        <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
         <v>28</v>
@@ -2109,19 +2112,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2132,22 +2135,22 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="G74" s="2" t="s">
         <v>28</v>
@@ -2155,22 +2158,22 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>109</v>
+        <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
         <v>28</v>
@@ -2178,22 +2181,22 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>116</v>
+        <v>95</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>99</v>
+        <v>114</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>117</v>
+        <v>97</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>100</v>
+        <v>115</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>10</v>
+        <v>111</v>
       </c>
       <c r="G76" s="2" t="s">
         <v>28</v>
@@ -2201,22 +2204,22 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E77" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="B77" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="C77" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D77" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="E77" s="2" t="s">
-        <v>102</v>
-      </c>
       <c r="F77" s="2" t="s">
-        <v>10</v>
+        <v>111</v>
       </c>
       <c r="G77" s="2" t="s">
         <v>28</v>
@@ -2224,19 +2227,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2247,19 +2250,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2270,19 +2273,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2293,19 +2296,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2316,19 +2319,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2339,19 +2342,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B83" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D83" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="C83" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D83" s="2" t="s">
-        <v>117</v>
-      </c>
       <c r="E83" s="2" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2362,24 +2365,70 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B84" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E84" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F84" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G84" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E85" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="C84" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D84" s="2" t="s">
+      <c r="F85" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G85" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="E84" s="2" t="s">
+      <c r="B86" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="F84" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G84" s="2" t="s">
+      <c r="C86" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E86" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="F86" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G86" s="2" t="s">
         <v>28</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_UnCiv_004.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_UnCiv_004.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="658" uniqueCount="131">
   <si>
     <t>Sezione</t>
   </si>
@@ -137,6 +137,9 @@
     <t>dataComunicazione</t>
   </si>
   <si>
+    <t>193-quinquies,193-quater</t>
+  </si>
+  <si>
     <t>Tipo atto da trascrivere</t>
   </si>
   <si>
@@ -293,6 +296,30 @@
     <t>flagFirmatario</t>
   </si>
   <si>
+    <t>Provincia AIRE</t>
+  </si>
+  <si>
+    <t>idProvinciaAIRE</t>
+  </si>
+  <si>
+    <t>Provincia AIRE - Descrizione</t>
+  </si>
+  <si>
+    <t>siglaProvinciaAIRE</t>
+  </si>
+  <si>
+    <t>Comune AIRE</t>
+  </si>
+  <si>
+    <t>idComuneAIRE</t>
+  </si>
+  <si>
+    <t>Comune AIRE - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeComuneAIRE</t>
+  </si>
+  <si>
     <t>Unito civilmente 2</t>
   </si>
   <si>
@@ -345,9 +372,6 @@
   </si>
   <si>
     <t>siglaProvinciaEnte</t>
-  </si>
-  <si>
-    <t>193-quinquies,193-quater</t>
   </si>
   <si>
     <t>Comune ente</t>
@@ -439,7 +463,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H86"/>
+  <dimension ref="A1:H94"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -876,7 +900,7 @@
         <v>39</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>37</v>
@@ -885,7 +909,7 @@
         <v>40</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="G19" s="2" t="s">
         <v>28</v>
@@ -896,7 +920,7 @@
         <v>35</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>12</v>
@@ -905,7 +929,7 @@
         <v>37</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>10</v>
@@ -919,7 +943,7 @@
         <v>35</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>12</v>
@@ -928,7 +952,7 @@
         <v>37</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>10</v>
@@ -939,19 +963,19 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>10</v>
@@ -962,19 +986,19 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>10</v>
@@ -985,19 +1009,19 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>10</v>
@@ -1008,19 +1032,19 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>10</v>
@@ -1031,19 +1055,19 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>10</v>
@@ -1054,19 +1078,19 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>10</v>
@@ -1077,19 +1101,19 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>10</v>
@@ -1100,19 +1124,19 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>10</v>
@@ -1123,19 +1147,19 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>10</v>
@@ -1146,19 +1170,19 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>10</v>
@@ -1169,19 +1193,19 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>10</v>
@@ -1192,19 +1216,19 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>10</v>
@@ -1215,19 +1239,19 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>10</v>
@@ -1238,19 +1262,19 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>10</v>
@@ -1261,19 +1285,19 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>10</v>
@@ -1284,19 +1308,19 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>10</v>
@@ -1307,19 +1331,19 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>10</v>
@@ -1330,19 +1354,19 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>10</v>
@@ -1353,19 +1377,19 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
@@ -1376,19 +1400,19 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
@@ -1399,19 +1423,19 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
@@ -1422,19 +1446,19 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
@@ -1445,19 +1469,19 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
@@ -1468,19 +1492,19 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>93</v>
+        <v>46</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>46</v>
+        <v>94</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>94</v>
+        <v>48</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>48</v>
+        <v>95</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
@@ -1491,19 +1515,19 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>93</v>
+        <v>46</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>49</v>
+        <v>96</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>94</v>
+        <v>48</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>50</v>
+        <v>97</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
@@ -1514,19 +1538,19 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>93</v>
+        <v>46</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>51</v>
+        <v>98</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>94</v>
+        <v>48</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>52</v>
+        <v>99</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
@@ -1537,19 +1561,19 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>93</v>
+        <v>46</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>53</v>
+        <v>100</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>94</v>
+        <v>48</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>54</v>
+        <v>101</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
@@ -1560,19 +1584,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -1583,19 +1607,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1606,19 +1630,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1629,19 +1653,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1652,19 +1676,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1675,19 +1699,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1698,19 +1722,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1721,19 +1745,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1744,19 +1768,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1767,19 +1791,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -1790,19 +1814,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1813,19 +1837,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -1836,19 +1860,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -1859,19 +1883,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -1882,19 +1906,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -1905,19 +1929,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -1928,19 +1952,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -1951,19 +1975,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -1974,19 +1998,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -1997,19 +2021,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2020,19 +2044,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2043,19 +2067,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2066,19 +2090,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="B71" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D71" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="C71" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D71" s="2" t="s">
-        <v>97</v>
-      </c>
       <c r="E71" s="2" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2089,19 +2113,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E72" s="2" t="s">
         <v>95</v>
-      </c>
-      <c r="B72" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="C72" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D72" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="E72" s="2" t="s">
-        <v>106</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2112,19 +2136,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E73" s="2" t="s">
         <v>97</v>
-      </c>
-      <c r="E73" s="2" t="s">
-        <v>108</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2135,22 +2159,22 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>111</v>
+        <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
         <v>28</v>
@@ -2158,19 +2182,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2181,22 +2205,22 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>111</v>
+        <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
         <v>28</v>
@@ -2204,22 +2228,22 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>67</v>
+        <v>108</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>111</v>
+        <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
         <v>28</v>
@@ -2227,19 +2251,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2250,19 +2274,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2273,19 +2297,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2296,19 +2320,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E81" s="2" t="s">
         <v>117</v>
-      </c>
-      <c r="B81" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="C81" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D81" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="E81" s="2" t="s">
-        <v>108</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2319,22 +2343,22 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="G82" s="2" t="s">
         <v>28</v>
@@ -2342,19 +2366,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2365,22 +2389,22 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="G84" s="2" t="s">
         <v>28</v>
@@ -2388,22 +2412,22 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>119</v>
+        <v>68</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="G85" s="2" t="s">
         <v>28</v>
@@ -2411,24 +2435,208 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E86" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="F86" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G86" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E87" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="F87" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G87" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E88" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F88" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G88" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E89" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="B86" s="2" t="s">
+      <c r="F89" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G89" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E90" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F90" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G90" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E91" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="C86" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D86" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="E86" s="2" t="s">
+      <c r="F91" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G91" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B92" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="F86" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G86" s="2" t="s">
+      <c r="C92" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E92" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="F92" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G92" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E93" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="F93" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G93" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E94" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="F94" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G94" s="2" t="s">
         <v>28</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_UnCiv_004.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_UnCiv_004.xlsx
@@ -1015,7 +1015,7 @@
         <v>52</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>48</v>
@@ -1636,7 +1636,7 @@
         <v>52</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D51" s="2" t="s">
         <v>103</v>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_UnCiv_004.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_UnCiv_004.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="658" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="721" uniqueCount="146">
   <si>
     <t>Sezione</t>
   </si>
@@ -119,7 +119,52 @@
     <t>minuto</t>
   </si>
   <si>
-    <t>Dati trascrizione</t>
+    <t>Dati della trascrizione</t>
+  </si>
+  <si>
+    <t>Stato</t>
+  </si>
+  <si>
+    <t>evento.datiEventoUnioneCivile.luogoCelebrazione</t>
+  </si>
+  <si>
+    <t>idStato</t>
+  </si>
+  <si>
+    <t>Stato descrizione</t>
+  </si>
+  <si>
+    <t>nomeStato</t>
+  </si>
+  <si>
+    <t>Provincia</t>
+  </si>
+  <si>
+    <t>idProvincia</t>
+  </si>
+  <si>
+    <t>Provincia - Descrizione</t>
+  </si>
+  <si>
+    <t>siglaProvincia</t>
+  </si>
+  <si>
+    <t>Comune</t>
+  </si>
+  <si>
+    <t>idComune</t>
+  </si>
+  <si>
+    <t>Comune - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeComune</t>
+  </si>
+  <si>
+    <t>Località estera</t>
+  </si>
+  <si>
+    <t>comuneEstero</t>
   </si>
   <si>
     <t>Tipo richiesta</t>
@@ -170,6 +215,12 @@
     <t>nome</t>
   </si>
   <si>
+    <t>Identificativo unico nazionale</t>
+  </si>
+  <si>
+    <t>idANPR</t>
+  </si>
+  <si>
     <t>Sesso</t>
   </si>
   <si>
@@ -218,19 +269,16 @@
     <t>nomeComuneNascita</t>
   </si>
   <si>
-    <t>Località estera</t>
-  </si>
-  <si>
     <t>localitaEsteraNascita</t>
   </si>
   <si>
-    <t>Nazionalita</t>
+    <t>Nazionalità</t>
   </si>
   <si>
     <t>idNazionalita</t>
   </si>
   <si>
-    <t>Nazionalita - Descrizione</t>
+    <t>Nazionalità - Descrizione</t>
   </si>
   <si>
     <t>nazionalita</t>
@@ -384,9 +432,6 @@
   </si>
   <si>
     <t>nomeComuneEnte</t>
-  </si>
-  <si>
-    <t>comuneEstero</t>
   </si>
   <si>
     <t>Autorità mittente</t>
@@ -463,13 +508,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H94"/>
+  <dimension ref="A1:H103"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="17.71875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="20.3984375" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="46.39453125" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.5625" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="49.7578125" customWidth="true" bestFit="true"/>
@@ -909,7 +954,7 @@
         <v>40</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>41</v>
+        <v>10</v>
       </c>
       <c r="G19" s="2" t="s">
         <v>28</v>
@@ -920,16 +965,16 @@
         <v>35</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>37</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>10</v>
@@ -943,16 +988,16 @@
         <v>35</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>37</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>10</v>
@@ -963,19 +1008,19 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E22" s="2" t="s">
         <v>46</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>49</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>10</v>
@@ -986,19 +1031,19 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D23" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E23" s="2" t="s">
         <v>48</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>51</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>10</v>
@@ -1009,19 +1054,19 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>10</v>
@@ -1032,19 +1077,19 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>10</v>
@@ -1055,22 +1100,22 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="B26" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F26" s="2" t="s">
         <v>56</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>10</v>
       </c>
       <c r="G26" s="2" t="s">
         <v>28</v>
@@ -1078,19 +1123,19 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="B27" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E27" s="2" t="s">
         <v>58</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>59</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>10</v>
@@ -1101,19 +1146,19 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="B28" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E28" s="2" t="s">
         <v>60</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>61</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>10</v>
@@ -1124,7 +1169,7 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>62</v>
@@ -1133,10 +1178,10 @@
         <v>9</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>10</v>
@@ -1147,19 +1192,19 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>10</v>
@@ -1170,19 +1215,19 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>10</v>
@@ -1193,19 +1238,19 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>10</v>
@@ -1216,19 +1261,19 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>10</v>
@@ -1239,19 +1284,19 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>10</v>
@@ -1262,19 +1307,19 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>10</v>
@@ -1285,19 +1330,19 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>10</v>
@@ -1308,19 +1353,19 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>10</v>
@@ -1331,19 +1376,19 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>10</v>
@@ -1354,19 +1399,19 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>10</v>
@@ -1377,16 +1422,16 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>84</v>
+        <v>49</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>85</v>
@@ -1400,16 +1445,16 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>86</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>87</v>
@@ -1423,7 +1468,7 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>88</v>
@@ -1432,7 +1477,7 @@
         <v>12</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>89</v>
@@ -1446,7 +1491,7 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>90</v>
@@ -1455,7 +1500,7 @@
         <v>12</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>91</v>
@@ -1469,7 +1514,7 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>92</v>
@@ -1478,7 +1523,7 @@
         <v>12</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>93</v>
@@ -1492,7 +1537,7 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>94</v>
@@ -1501,7 +1546,7 @@
         <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>95</v>
@@ -1515,7 +1560,7 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>96</v>
@@ -1524,7 +1569,7 @@
         <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>97</v>
@@ -1538,7 +1583,7 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>98</v>
@@ -1547,7 +1592,7 @@
         <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>99</v>
@@ -1561,7 +1606,7 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>100</v>
@@ -1570,7 +1615,7 @@
         <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>101</v>
@@ -1584,19 +1629,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B49" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="B49" s="2" t="s">
-        <v>47</v>
-      </c>
       <c r="C49" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E49" s="2" t="s">
         <v>103</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>49</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -1607,19 +1652,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>102</v>
+        <v>61</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>50</v>
+        <v>104</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>103</v>
+        <v>63</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>51</v>
+        <v>105</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1630,19 +1675,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>102</v>
+        <v>61</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>52</v>
+        <v>106</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>103</v>
+        <v>63</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>53</v>
+        <v>107</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1653,19 +1698,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>102</v>
+        <v>61</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>54</v>
+        <v>108</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>103</v>
+        <v>63</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>55</v>
+        <v>109</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1676,19 +1721,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>102</v>
+        <v>61</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>56</v>
+        <v>110</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>103</v>
+        <v>63</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>57</v>
+        <v>111</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1699,19 +1744,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>102</v>
+        <v>61</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>58</v>
+        <v>112</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>103</v>
+        <v>63</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>59</v>
+        <v>113</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1722,19 +1767,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>102</v>
+        <v>61</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>60</v>
+        <v>114</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>103</v>
+        <v>63</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>61</v>
+        <v>115</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1745,19 +1790,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>102</v>
+        <v>61</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>62</v>
+        <v>116</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>103</v>
+        <v>63</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>63</v>
+        <v>117</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1768,19 +1813,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>102</v>
+        <v>118</v>
       </c>
       <c r="B57" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="E57" s="2" t="s">
         <v>64</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="E57" s="2" t="s">
-        <v>65</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1791,19 +1836,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>102</v>
+        <v>118</v>
       </c>
       <c r="B58" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="E58" s="2" t="s">
         <v>66</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="E58" s="2" t="s">
-        <v>67</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -1814,19 +1859,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>102</v>
+        <v>118</v>
       </c>
       <c r="B59" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="E59" s="2" t="s">
         <v>68</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="E59" s="2" t="s">
-        <v>69</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1837,19 +1882,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>102</v>
+        <v>118</v>
       </c>
       <c r="B60" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="E60" s="2" t="s">
         <v>70</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="E60" s="2" t="s">
-        <v>71</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -1860,19 +1905,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>102</v>
+        <v>118</v>
       </c>
       <c r="B61" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="E61" s="2" t="s">
         <v>72</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="E61" s="2" t="s">
-        <v>73</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -1883,19 +1928,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>102</v>
+        <v>118</v>
       </c>
       <c r="B62" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="E62" s="2" t="s">
         <v>74</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="E62" s="2" t="s">
-        <v>75</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -1906,19 +1951,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>102</v>
+        <v>118</v>
       </c>
       <c r="B63" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="E63" s="2" t="s">
         <v>76</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D63" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="E63" s="2" t="s">
-        <v>77</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -1929,19 +1974,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>102</v>
+        <v>118</v>
       </c>
       <c r="B64" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="E64" s="2" t="s">
         <v>78</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D64" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="E64" s="2" t="s">
-        <v>79</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -1952,19 +1997,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>102</v>
+        <v>118</v>
       </c>
       <c r="B65" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="E65" s="2" t="s">
         <v>80</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D65" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="E65" s="2" t="s">
-        <v>81</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -1975,19 +2020,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>102</v>
+        <v>118</v>
       </c>
       <c r="B66" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="E66" s="2" t="s">
         <v>82</v>
-      </c>
-      <c r="C66" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D66" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="E66" s="2" t="s">
-        <v>83</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -1998,19 +2043,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>102</v>
+        <v>118</v>
       </c>
       <c r="B67" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="E67" s="2" t="s">
         <v>84</v>
-      </c>
-      <c r="C67" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D67" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="E67" s="2" t="s">
-        <v>85</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2021,19 +2066,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>102</v>
+        <v>118</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>86</v>
+        <v>49</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>103</v>
+        <v>119</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2044,19 +2089,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>102</v>
+        <v>118</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>103</v>
+        <v>119</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2067,19 +2112,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>102</v>
+        <v>118</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>103</v>
+        <v>119</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2090,19 +2135,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>102</v>
+        <v>118</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>103</v>
+        <v>119</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2113,19 +2158,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>102</v>
+        <v>118</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>103</v>
+        <v>119</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2136,19 +2181,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>102</v>
+        <v>118</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>103</v>
+        <v>119</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2159,19 +2204,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>102</v>
+        <v>118</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>103</v>
+        <v>119</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2182,19 +2227,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>102</v>
+        <v>118</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>103</v>
+        <v>119</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2205,19 +2250,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>106</v>
+        <v>119</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2228,19 +2273,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>106</v>
+        <v>119</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2251,19 +2296,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B78" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="B78" s="2" t="s">
-        <v>110</v>
-      </c>
       <c r="C78" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>106</v>
+        <v>119</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2274,19 +2319,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>106</v>
+        <v>119</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2297,19 +2342,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>106</v>
+        <v>119</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2320,19 +2365,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>106</v>
+        <v>119</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2343,22 +2388,22 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>106</v>
+        <v>119</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>41</v>
+        <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
         <v>28</v>
@@ -2366,19 +2411,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>106</v>
+        <v>119</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2389,22 +2434,22 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>106</v>
+        <v>119</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>41</v>
+        <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
         <v>28</v>
@@ -2412,22 +2457,22 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>104</v>
+        <v>120</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>68</v>
+        <v>121</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>106</v>
+        <v>122</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>41</v>
+        <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
         <v>28</v>
@@ -2435,19 +2480,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E86" s="2" t="s">
         <v>125</v>
-      </c>
-      <c r="B86" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="C86" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D86" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="E86" s="2" t="s">
-        <v>111</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2458,19 +2503,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>112</v>
+        <v>126</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>113</v>
+        <v>127</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2481,19 +2526,19 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>114</v>
+        <v>128</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2504,19 +2549,19 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>116</v>
+        <v>130</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>117</v>
+        <v>131</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2527,19 +2572,19 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>118</v>
+        <v>132</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -2550,22 +2595,22 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>120</v>
+        <v>134</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>121</v>
+        <v>135</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>10</v>
+        <v>56</v>
       </c>
       <c r="G91" s="2" t="s">
         <v>28</v>
@@ -2573,19 +2618,19 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="B92" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D92" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="C92" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D92" s="2" t="s">
-        <v>126</v>
-      </c>
       <c r="E92" s="2" t="s">
-        <v>123</v>
+        <v>137</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2596,22 +2641,22 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>10</v>
+        <v>56</v>
       </c>
       <c r="G93" s="2" t="s">
         <v>28</v>
@@ -2619,24 +2664,231 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="B94" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E94" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F94" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="G94" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E95" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F95" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G95" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E96" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="C94" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D94" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="E94" s="2" t="s">
+      <c r="F96" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G96" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B97" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="F94" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G94" s="2" t="s">
+      <c r="C97" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E97" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="F97" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G97" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E98" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="F98" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G98" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E99" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="F99" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G99" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E100" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="F100" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G100" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E101" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="F101" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G101" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E102" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="F102" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G102" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E103" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="F103" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G103" s="2" t="s">
         <v>28</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_UnCiv_004.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_UnCiv_004.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="721" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="735" uniqueCount="149">
   <si>
     <t>Sezione</t>
   </si>
@@ -284,6 +284,12 @@
     <t>nazionalita</t>
   </si>
   <si>
+    <t>Residenza non nota</t>
+  </si>
+  <si>
+    <t>flagIrreperibile</t>
+  </si>
+  <si>
     <t>Stato di residenza</t>
   </si>
   <si>
@@ -438,6 +444,9 @@
   </si>
   <si>
     <t>evento.trascrizioneUnioneCivile.atto.enteEstero</t>
+  </si>
+  <si>
+    <t>opzionale</t>
   </si>
   <si>
     <t>Anagrafica Consolato</t>
@@ -508,7 +517,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H103"/>
+  <dimension ref="A1:H105"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -922,7 +931,7 @@
         <v>36</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>37</v>
@@ -1497,7 +1506,7 @@
         <v>90</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>63</v>
@@ -1520,7 +1529,7 @@
         <v>92</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>63</v>
@@ -1658,7 +1667,7 @@
         <v>104</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
         <v>63</v>
@@ -1727,7 +1736,7 @@
         <v>110</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D53" s="2" t="s">
         <v>63</v>
@@ -1813,19 +1822,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B57" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="B57" s="2" t="s">
-        <v>62</v>
-      </c>
       <c r="C57" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E57" s="2" t="s">
         <v>119</v>
-      </c>
-      <c r="E57" s="2" t="s">
-        <v>64</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1836,19 +1845,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -1859,19 +1868,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1882,19 +1891,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -1905,19 +1914,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -1928,19 +1937,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -1951,19 +1960,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -1974,19 +1983,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -1997,19 +2006,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -2020,19 +2029,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -2043,19 +2052,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2066,19 +2075,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>49</v>
+        <v>83</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2089,19 +2098,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>86</v>
+        <v>49</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2112,19 +2121,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2135,19 +2144,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2158,19 +2167,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2181,19 +2190,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2204,19 +2213,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2227,19 +2236,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2250,19 +2259,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2273,19 +2282,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2296,19 +2305,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2319,19 +2328,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2342,19 +2351,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2365,19 +2374,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2388,19 +2397,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2411,19 +2420,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2434,19 +2443,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2460,16 +2469,16 @@
         <v>120</v>
       </c>
       <c r="B85" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D85" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="C85" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D85" s="2" t="s">
-        <v>122</v>
-      </c>
       <c r="E85" s="2" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2483,16 +2492,16 @@
         <v>120</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2503,19 +2512,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2526,19 +2535,19 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2549,19 +2558,19 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2572,19 +2581,19 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -2595,22 +2604,22 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
         <v>28</v>
@@ -2618,19 +2627,19 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2641,19 +2650,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>56</v>
@@ -2664,22 +2673,22 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>49</v>
+        <v>138</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>50</v>
+        <v>139</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
         <v>28</v>
@@ -2687,22 +2696,22 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B95" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="B95" s="2" t="s">
-        <v>126</v>
-      </c>
       <c r="C95" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E95" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="E95" s="2" t="s">
-        <v>127</v>
-      </c>
       <c r="F95" s="2" t="s">
-        <v>10</v>
+        <v>56</v>
       </c>
       <c r="G95" s="2" t="s">
         <v>28</v>
@@ -2710,22 +2719,22 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>140</v>
+        <v>122</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>128</v>
+        <v>49</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>141</v>
+        <v>124</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>129</v>
+        <v>50</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>10</v>
+        <v>56</v>
       </c>
       <c r="G96" s="2" t="s">
         <v>28</v>
@@ -2733,163 +2742,209 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>28</v>
+        <v>144</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>28</v>
+        <v>144</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>28</v>
+        <v>144</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>28</v>
+        <v>144</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>28</v>
+        <v>144</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>28</v>
+        <v>144</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B103" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="B103" s="2" t="s">
+      <c r="C103" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E103" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="F103" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G103" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="C103" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D103" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="E103" s="2" t="s">
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B104" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="F103" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G103" s="2" t="s">
-        <v>28</v>
+      <c r="C104" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E104" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="F104" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G104" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D105" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E105" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="F105" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G105" s="2" t="s">
+        <v>144</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_UnCiv_004.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_UnCiv_004.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="735" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="749" uniqueCount="151">
   <si>
     <t>Sezione</t>
   </si>
@@ -282,6 +282,12 @@
   </si>
   <si>
     <t>nazionalita</t>
+  </si>
+  <si>
+    <t>Comprensione</t>
+  </si>
+  <si>
+    <t>tipoImpedimento</t>
   </si>
   <si>
     <t>Residenza non nota</t>
@@ -517,7 +523,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H105"/>
+  <dimension ref="A1:H107"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1690,7 +1696,7 @@
         <v>106</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
         <v>63</v>
@@ -1759,7 +1765,7 @@
         <v>112</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D54" s="2" t="s">
         <v>63</v>
@@ -1845,19 +1851,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B58" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="B58" s="2" t="s">
-        <v>62</v>
-      </c>
       <c r="C58" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E58" s="2" t="s">
         <v>121</v>
-      </c>
-      <c r="E58" s="2" t="s">
-        <v>64</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -1868,19 +1874,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1891,19 +1897,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -1914,19 +1920,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -1937,19 +1943,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -1960,19 +1966,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -1983,19 +1989,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -2006,19 +2012,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -2029,19 +2035,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -2052,19 +2058,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2075,19 +2081,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2098,19 +2104,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>49</v>
+        <v>83</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2121,19 +2127,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>86</v>
+        <v>49</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2144,19 +2150,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2167,19 +2173,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2190,19 +2196,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2213,19 +2219,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2236,19 +2242,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2259,19 +2265,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2282,19 +2288,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2305,19 +2311,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2328,19 +2334,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2351,19 +2357,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2374,19 +2380,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2397,19 +2403,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2420,19 +2426,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2443,19 +2449,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2466,19 +2472,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2489,19 +2495,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2515,16 +2521,16 @@
         <v>122</v>
       </c>
       <c r="B87" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D87" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="C87" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D87" s="2" t="s">
-        <v>124</v>
-      </c>
       <c r="E87" s="2" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2538,16 +2544,16 @@
         <v>122</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2558,19 +2564,19 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2581,19 +2587,19 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -2604,19 +2610,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2627,19 +2633,19 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2650,22 +2656,22 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
         <v>28</v>
@@ -2673,19 +2679,19 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
@@ -2696,19 +2702,19 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>56</v>
@@ -2719,22 +2725,22 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>49</v>
+        <v>140</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>50</v>
+        <v>141</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
         <v>28</v>
@@ -2742,209 +2748,255 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B97" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="B97" s="2" t="s">
-        <v>128</v>
-      </c>
       <c r="C97" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E97" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="E97" s="2" t="s">
-        <v>129</v>
-      </c>
       <c r="F97" s="2" t="s">
-        <v>10</v>
+        <v>56</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>144</v>
+        <v>28</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>142</v>
+        <v>124</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>130</v>
+        <v>49</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>143</v>
+        <v>126</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>131</v>
+        <v>50</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>10</v>
+        <v>56</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>144</v>
+        <v>28</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B104" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D104" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="C104" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D104" s="2" t="s">
-        <v>143</v>
-      </c>
       <c r="E104" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="F104" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G104" s="2" t="s">
         <v>146</v>
-      </c>
-      <c r="F104" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G104" s="2" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B105" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="B105" s="2" t="s">
+      <c r="C105" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D105" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E105" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="F105" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G105" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B106" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="C105" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D105" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="E105" s="2" t="s">
+      <c r="C106" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E106" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="F105" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G105" s="2" t="s">
+      <c r="F106" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G106" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="s">
         <v>144</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E107" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="F107" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G107" s="2" t="s">
+        <v>146</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_UnCiv_004.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_UnCiv_004.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="749" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="917" uniqueCount="177">
   <si>
     <t>Sezione</t>
   </si>
@@ -386,6 +386,87 @@
     <t>evento.intestatari[1]</t>
   </si>
   <si>
+    <t>Atto nascita Coniuge1</t>
+  </si>
+  <si>
+    <t>Provincia registrazione</t>
+  </si>
+  <si>
+    <t>evento.datiEventoUnioneCivile.attoNascitaConiuge1</t>
+  </si>
+  <si>
+    <t>idProvinciaRegistrazione</t>
+  </si>
+  <si>
+    <t>opzionale</t>
+  </si>
+  <si>
+    <t>Provincia registrazione - Descrizione</t>
+  </si>
+  <si>
+    <t>siglaProvinciaRegistrazione</t>
+  </si>
+  <si>
+    <t>Comune registrazione</t>
+  </si>
+  <si>
+    <t>idComuneRegistrazione</t>
+  </si>
+  <si>
+    <t>Comune registrazione - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeComuneRegistrazione</t>
+  </si>
+  <si>
+    <t>Tipo evento</t>
+  </si>
+  <si>
+    <t>idtipocontenuto</t>
+  </si>
+  <si>
+    <t>Numero Comunale</t>
+  </si>
+  <si>
+    <t>Anno atto</t>
+  </si>
+  <si>
+    <t>annoAtto</t>
+  </si>
+  <si>
+    <t>Data atto</t>
+  </si>
+  <si>
+    <t>Parte</t>
+  </si>
+  <si>
+    <t>parte</t>
+  </si>
+  <si>
+    <t>Serie</t>
+  </si>
+  <si>
+    <t>serie</t>
+  </si>
+  <si>
+    <t>Volume</t>
+  </si>
+  <si>
+    <t>volume</t>
+  </si>
+  <si>
+    <t>Tipo registro</t>
+  </si>
+  <si>
+    <t>tipologia</t>
+  </si>
+  <si>
+    <t>Atto nascita Coniuge2</t>
+  </si>
+  <si>
+    <t>evento.datiEventoUnioneCivile.attoNascitaConiuge2</t>
+  </si>
+  <si>
     <t>Atto da trascrivere</t>
   </si>
   <si>
@@ -450,9 +531,6 @@
   </si>
   <si>
     <t>evento.trascrizioneUnioneCivile.atto.enteEstero</t>
-  </si>
-  <si>
-    <t>opzionale</t>
   </si>
   <si>
     <t>Anagrafica Consolato</t>
@@ -523,17 +601,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H107"/>
+  <dimension ref="A1:H131"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="20.3984375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="20.62890625" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="46.39453125" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.5625" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="49.7578125" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="24.66796875" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="25.734375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="28.44921875" customWidth="true" bestFit="true"/>
   </cols>
@@ -2570,7 +2648,7 @@
         <v>125</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
         <v>126</v>
@@ -2582,7 +2660,7 @@
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>28</v>
+        <v>128</v>
       </c>
     </row>
     <row r="90">
@@ -2590,22 +2668,22 @@
         <v>124</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
         <v>126</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>28</v>
+        <v>128</v>
       </c>
     </row>
     <row r="91">
@@ -2613,22 +2691,22 @@
         <v>124</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
         <v>126</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>28</v>
+        <v>128</v>
       </c>
     </row>
     <row r="92">
@@ -2636,22 +2714,22 @@
         <v>124</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
         <v>126</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>28</v>
+        <v>128</v>
       </c>
     </row>
     <row r="93">
@@ -2659,22 +2737,22 @@
         <v>124</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
         <v>126</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>28</v>
+        <v>128</v>
       </c>
     </row>
     <row r="94">
@@ -2682,7 +2760,7 @@
         <v>124</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>9</v>
@@ -2691,13 +2769,13 @@
         <v>126</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>137</v>
+        <v>27</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>28</v>
+        <v>128</v>
       </c>
     </row>
     <row r="95">
@@ -2717,10 +2795,10 @@
         <v>139</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>28</v>
+        <v>128</v>
       </c>
     </row>
     <row r="96">
@@ -2737,13 +2815,13 @@
         <v>126</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>141</v>
+        <v>30</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>28</v>
+        <v>128</v>
       </c>
     </row>
     <row r="97">
@@ -2751,7 +2829,7 @@
         <v>124</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>9</v>
@@ -2760,13 +2838,13 @@
         <v>126</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>28</v>
+        <v>128</v>
       </c>
     </row>
     <row r="98">
@@ -2774,7 +2852,7 @@
         <v>124</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>49</v>
+        <v>143</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>9</v>
@@ -2783,220 +2861,772 @@
         <v>126</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>50</v>
+        <v>144</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>28</v>
+        <v>128</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>144</v>
+        <v>124</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>130</v>
+        <v>145</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>145</v>
+        <v>126</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>131</v>
+        <v>146</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>146</v>
+        <v>128</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>144</v>
+        <v>124</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>132</v>
+        <v>147</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>145</v>
+        <v>126</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>133</v>
+        <v>148</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>146</v>
+        <v>128</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>146</v>
+        <v>128</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>146</v>
+        <v>128</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>146</v>
+        <v>128</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>146</v>
+        <v>128</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>146</v>
+        <v>128</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>148</v>
+        <v>27</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>146</v>
+        <v>128</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E107" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="F107" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G107" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E108" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F108" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G108" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E109" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="F109" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G109" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E110" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="B107" s="2" t="s">
+      <c r="F110" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G110" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="C107" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D107" s="2" t="s">
+      <c r="B111" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="E107" s="2" t="s">
+      <c r="C111" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D111" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="F107" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G107" s="2" t="s">
+      <c r="E111" s="2" t="s">
         <v>146</v>
+      </c>
+      <c r="F111" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G111" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E112" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="F112" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G112" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D113" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="E113" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="F113" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G113" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D114" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="E114" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="F114" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G114" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D115" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="E115" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="F115" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G115" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D116" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="E116" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="F116" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G116" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D117" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="E117" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="F117" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G117" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D118" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="E118" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="F118" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G118" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D119" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="E119" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="F119" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="G119" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D120" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="E120" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="F120" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G120" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D121" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="E121" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="F121" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="G121" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D122" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="E122" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F122" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="G122" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="B123" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D123" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="E123" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="F123" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G123" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="B124" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D124" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="E124" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="F124" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G124" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="B125" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D125" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="E125" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="F125" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G125" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="B126" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D126" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="E126" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="F126" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G126" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="B127" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D127" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="E127" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="F127" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G127" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="B128" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D128" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="E128" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="F128" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G128" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="B129" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D129" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="E129" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="F129" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G129" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="B130" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D130" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="E130" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="F130" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G130" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="B131" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C131" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D131" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="E131" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="F131" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G131" s="2" t="s">
+        <v>128</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_UnCiv_004.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_UnCiv_004.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="917" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="931" uniqueCount="179">
   <si>
     <t>Sezione</t>
   </si>
@@ -378,6 +378,12 @@
   </si>
   <si>
     <t>nomeComuneAIRE</t>
+  </si>
+  <si>
+    <t>Residenza al momento dell'evento originario</t>
+  </si>
+  <si>
+    <t>residenzaOriginaria</t>
   </si>
   <si>
     <t>Unito civilmente 2</t>
@@ -601,7 +607,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H131"/>
+  <dimension ref="A1:H133"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1952,19 +1958,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B59" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="B59" s="2" t="s">
-        <v>62</v>
-      </c>
       <c r="C59" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E59" s="2" t="s">
         <v>123</v>
-      </c>
-      <c r="E59" s="2" t="s">
-        <v>64</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1975,19 +1981,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -1998,19 +2004,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -2021,19 +2027,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -2044,19 +2050,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -2067,19 +2073,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -2090,19 +2096,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -2113,19 +2119,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -2136,19 +2142,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2159,19 +2165,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2182,19 +2188,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2205,19 +2211,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>49</v>
+        <v>83</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2228,19 +2234,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>86</v>
+        <v>49</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2251,19 +2257,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2274,19 +2280,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2297,19 +2303,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2320,19 +2326,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2343,19 +2349,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2366,19 +2372,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2389,19 +2395,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2412,19 +2418,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2435,19 +2441,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2458,19 +2464,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2481,19 +2487,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2504,19 +2510,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2527,19 +2533,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2550,19 +2556,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2573,19 +2579,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2596,19 +2602,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2619,19 +2625,19 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2645,22 +2651,22 @@
         <v>124</v>
       </c>
       <c r="B89" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D89" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="C89" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D89" s="2" t="s">
-        <v>126</v>
-      </c>
       <c r="E89" s="2" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>128</v>
+        <v>28</v>
       </c>
     </row>
     <row r="90">
@@ -2668,528 +2674,528 @@
         <v>124</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>128</v>
+        <v>28</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>27</v>
+        <v>136</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B95" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E95" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="C95" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D95" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="E95" s="2" t="s">
-        <v>139</v>
-      </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B97" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E97" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="C97" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D97" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="E97" s="2" t="s">
-        <v>142</v>
-      </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>144</v>
+        <v>30</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>149</v>
+        <v>126</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>125</v>
+        <v>147</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>150</v>
+        <v>128</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>127</v>
+        <v>148</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B102" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="B102" s="2" t="s">
-        <v>129</v>
-      </c>
       <c r="C102" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E102" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="E102" s="2" t="s">
+      <c r="F102" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G102" s="2" t="s">
         <v>130</v>
-      </c>
-      <c r="F102" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G102" s="2" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>27</v>
+        <v>136</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B107" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="E107" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="C107" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D107" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="E107" s="2" t="s">
-        <v>139</v>
-      </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B109" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="E109" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="C109" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D109" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="E109" s="2" t="s">
-        <v>142</v>
-      </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>144</v>
+        <v>30</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="113">
@@ -3197,22 +3203,22 @@
         <v>151</v>
       </c>
       <c r="B113" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D113" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="C113" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D113" s="2" t="s">
-        <v>153</v>
-      </c>
       <c r="E113" s="2" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>28</v>
+        <v>130</v>
       </c>
     </row>
     <row r="114">
@@ -3220,39 +3226,39 @@
         <v>151</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>28</v>
+        <v>130</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
@@ -3263,19 +3269,19 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
@@ -3286,19 +3292,19 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
@@ -3309,19 +3315,19 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
@@ -3332,22 +3338,22 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
         <v>28</v>
@@ -3355,19 +3361,19 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
@@ -3378,19 +3384,19 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>56</v>
@@ -3401,22 +3407,22 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>49</v>
+        <v>169</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>50</v>
+        <v>170</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="G122" s="2" t="s">
         <v>28</v>
@@ -3424,209 +3430,255 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B123" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="B123" s="2" t="s">
-        <v>157</v>
-      </c>
       <c r="C123" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D123" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="E123" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="E123" s="2" t="s">
-        <v>158</v>
-      </c>
       <c r="F123" s="2" t="s">
-        <v>10</v>
+        <v>56</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>128</v>
+        <v>28</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>159</v>
+        <v>49</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>172</v>
+        <v>155</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>160</v>
+        <v>50</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>10</v>
+        <v>56</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>128</v>
+        <v>28</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="B131" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="B131" s="2" t="s">
+      <c r="C131" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D131" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="E131" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="F131" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G131" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="B132" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="C131" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D131" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="E131" s="2" t="s">
+      <c r="C132" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D132" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="E132" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="F131" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G131" s="2" t="s">
-        <v>128</v>
+      <c r="F132" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G132" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="B133" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="C133" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D133" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="E133" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="F133" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G133" s="2" t="s">
+        <v>130</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_UnCiv_004.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_UnCiv_004.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="931" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="917" uniqueCount="177">
   <si>
     <t>Sezione</t>
   </si>
@@ -378,12 +378,6 @@
   </si>
   <si>
     <t>nomeComuneAIRE</t>
-  </si>
-  <si>
-    <t>Residenza al momento dell'evento originario</t>
-  </si>
-  <si>
-    <t>residenzaOriginaria</t>
   </si>
   <si>
     <t>Unito civilmente 2</t>
@@ -607,7 +601,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H133"/>
+  <dimension ref="A1:H131"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1958,19 +1952,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>61</v>
+        <v>122</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>122</v>
+        <v>62</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>63</v>
+        <v>123</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>123</v>
+        <v>64</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1981,19 +1975,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -2004,19 +1998,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -2027,19 +2021,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -2050,19 +2044,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -2073,19 +2067,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -2096,19 +2090,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -2119,19 +2113,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -2142,19 +2136,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2165,19 +2159,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2188,19 +2182,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2211,19 +2205,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>83</v>
+        <v>49</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2234,19 +2228,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>49</v>
+        <v>86</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2257,19 +2251,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2280,19 +2274,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2303,19 +2297,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2326,19 +2320,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2349,19 +2343,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2372,19 +2366,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2395,19 +2389,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2418,19 +2412,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2441,19 +2435,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2464,19 +2458,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2487,19 +2481,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2510,19 +2504,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2533,19 +2527,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2556,19 +2550,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2579,19 +2573,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2602,19 +2596,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2625,19 +2619,19 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2651,22 +2645,22 @@
         <v>124</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>28</v>
+        <v>128</v>
       </c>
     </row>
     <row r="90">
@@ -2674,528 +2668,528 @@
         <v>124</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>28</v>
+        <v>128</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D91" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="B91" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="C91" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D91" s="2" t="s">
+      <c r="E91" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="F91" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G91" s="2" t="s">
         <v>128</v>
-      </c>
-      <c r="E91" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="F91" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G91" s="2" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D92" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="B92" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="C92" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D92" s="2" t="s">
+      <c r="E92" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="F92" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G92" s="2" t="s">
         <v>128</v>
-      </c>
-      <c r="E92" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="F92" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G92" s="2" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D93" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="B93" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="C93" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D93" s="2" t="s">
+      <c r="E93" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="F93" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G93" s="2" t="s">
         <v>128</v>
-      </c>
-      <c r="E93" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="F93" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G93" s="2" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D94" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="B94" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="C94" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D94" s="2" t="s">
+      <c r="E94" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F94" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G94" s="2" t="s">
         <v>128</v>
-      </c>
-      <c r="E94" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="F94" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G94" s="2" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D95" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="B95" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="C95" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D95" s="2" t="s">
+      <c r="E95" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="F95" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G95" s="2" t="s">
         <v>128</v>
-      </c>
-      <c r="E95" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="F95" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G95" s="2" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D96" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="B96" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="C96" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D96" s="2" t="s">
+      <c r="E96" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F96" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G96" s="2" t="s">
         <v>128</v>
-      </c>
-      <c r="E96" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F96" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G96" s="2" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D97" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="B97" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="C97" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D97" s="2" t="s">
+      <c r="E97" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="F97" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G97" s="2" t="s">
         <v>128</v>
-      </c>
-      <c r="E97" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="F97" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G97" s="2" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D98" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="B98" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="C98" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D98" s="2" t="s">
+      <c r="E98" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="F98" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G98" s="2" t="s">
         <v>128</v>
-      </c>
-      <c r="E98" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F98" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G98" s="2" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D99" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="B99" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="C99" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D99" s="2" t="s">
+      <c r="E99" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="F99" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G99" s="2" t="s">
         <v>128</v>
-      </c>
-      <c r="E99" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="F99" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G99" s="2" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D100" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="B100" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="C100" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D100" s="2" t="s">
+      <c r="E100" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="F100" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G100" s="2" t="s">
         <v>128</v>
-      </c>
-      <c r="E100" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="F100" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G100" s="2" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>126</v>
+        <v>149</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>147</v>
+        <v>125</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E101" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F101" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G101" s="2" t="s">
         <v>128</v>
-      </c>
-      <c r="E101" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="F101" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G101" s="2" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>126</v>
+        <v>149</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>149</v>
+        <v>129</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E102" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="F102" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G102" s="2" t="s">
         <v>128</v>
-      </c>
-      <c r="E102" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="F102" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G102" s="2" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>136</v>
+        <v>27</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>30</v>
+        <v>144</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="113">
@@ -3203,22 +3197,22 @@
         <v>151</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>130</v>
+        <v>28</v>
       </c>
     </row>
     <row r="114">
@@ -3226,39 +3220,39 @@
         <v>151</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>130</v>
+        <v>28</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
@@ -3269,19 +3263,19 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
@@ -3292,19 +3286,19 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
@@ -3315,19 +3309,19 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D118" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="B118" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="C118" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D118" s="2" t="s">
-        <v>155</v>
-      </c>
       <c r="E118" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
@@ -3338,22 +3332,22 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D119" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="B119" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="C119" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D119" s="2" t="s">
-        <v>155</v>
-      </c>
       <c r="E119" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>10</v>
+        <v>56</v>
       </c>
       <c r="G119" s="2" t="s">
         <v>28</v>
@@ -3361,19 +3355,19 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D120" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="B120" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="C120" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D120" s="2" t="s">
-        <v>155</v>
-      </c>
       <c r="E120" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
@@ -3384,19 +3378,19 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D121" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="B121" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="C121" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D121" s="2" t="s">
-        <v>155</v>
-      </c>
       <c r="E121" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>56</v>
@@ -3407,22 +3401,22 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D122" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="B122" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="C122" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D122" s="2" t="s">
-        <v>155</v>
-      </c>
       <c r="E122" s="2" t="s">
-        <v>170</v>
+        <v>50</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>10</v>
+        <v>56</v>
       </c>
       <c r="G122" s="2" t="s">
         <v>28</v>
@@ -3430,255 +3424,209 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>153</v>
+        <v>171</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>171</v>
+        <v>157</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>155</v>
+        <v>172</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>172</v>
+        <v>158</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>28</v>
+        <v>128</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>153</v>
+        <v>171</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>49</v>
+        <v>159</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>155</v>
+        <v>172</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>50</v>
+        <v>160</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>28</v>
+        <v>128</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="B130" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="B130" s="2" t="s">
-        <v>169</v>
-      </c>
       <c r="C130" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D130" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="E130" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="E130" s="2" t="s">
-        <v>170</v>
-      </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="B132" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="C132" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D132" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="E132" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="F132" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G132" s="2" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="B133" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="C133" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D133" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="E133" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="F133" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G133" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_UnCiv_004.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_UnCiv_004.xlsx
@@ -47,7 +47,7 @@
     <t/>
   </si>
   <si>
-    <t>Atto di costituzione di unione civile</t>
+    <t>Atto di costituzione e traduzione</t>
   </si>
   <si>
     <t>SI</t>
@@ -699,7 +699,7 @@
         <v>13</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>10</v>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_UnCiv_004.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_UnCiv_004.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="931" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="959" uniqueCount="183">
   <si>
     <t>Sezione</t>
   </si>
@@ -225,6 +225,18 @@
   </si>
   <si>
     <t>sesso</t>
+  </si>
+  <si>
+    <t>Formato Data Nascita</t>
+  </si>
+  <si>
+    <t>idFormatodata</t>
+  </si>
+  <si>
+    <t>Formato Data Nascita - Descrizione</t>
+  </si>
+  <si>
+    <t>formatodata</t>
   </si>
   <si>
     <t>Data nascita</t>
@@ -607,7 +619,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H133"/>
+  <dimension ref="A1:H137"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1366,7 +1378,7 @@
         <v>71</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>63</v>
@@ -1389,7 +1401,7 @@
         <v>73</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>63</v>
@@ -1435,7 +1447,7 @@
         <v>77</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>63</v>
@@ -1458,7 +1470,7 @@
         <v>79</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>63</v>
@@ -1524,7 +1536,7 @@
         <v>61</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>49</v>
+        <v>85</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>9</v>
@@ -1533,7 +1545,7 @@
         <v>63</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
@@ -1547,16 +1559,16 @@
         <v>61</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>63</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
@@ -1570,10 +1582,10 @@
         <v>61</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>88</v>
+        <v>49</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>63</v>
@@ -1596,7 +1608,7 @@
         <v>90</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>63</v>
@@ -1619,7 +1631,7 @@
         <v>92</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>63</v>
@@ -1803,7 +1815,7 @@
         <v>108</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
         <v>63</v>
@@ -1826,7 +1838,7 @@
         <v>110</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
         <v>63</v>
@@ -1872,7 +1884,7 @@
         <v>114</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D55" s="2" t="s">
         <v>63</v>
@@ -1895,7 +1907,7 @@
         <v>116</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D56" s="2" t="s">
         <v>63</v>
@@ -1981,19 +1993,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B60" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="B60" s="2" t="s">
-        <v>62</v>
-      </c>
       <c r="C60" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E60" s="2" t="s">
         <v>125</v>
-      </c>
-      <c r="E60" s="2" t="s">
-        <v>64</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -2004,19 +2016,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>124</v>
+        <v>61</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>65</v>
+        <v>126</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>125</v>
+        <v>63</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>66</v>
+        <v>127</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -2027,19 +2039,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -2050,19 +2062,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -2073,19 +2085,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -2096,19 +2108,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -2119,19 +2131,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -2142,19 +2154,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2165,19 +2177,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2188,19 +2200,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2211,19 +2223,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2234,19 +2246,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>49</v>
+        <v>81</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2257,19 +2269,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2280,19 +2292,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2303,19 +2315,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2326,19 +2338,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>92</v>
+        <v>49</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2349,19 +2361,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2372,19 +2384,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2395,19 +2407,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2418,19 +2430,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2441,19 +2453,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2464,19 +2476,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2487,19 +2499,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2510,19 +2522,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2533,19 +2545,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2556,19 +2568,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2579,19 +2591,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2602,19 +2614,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2625,19 +2637,19 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2648,19 +2660,19 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2671,19 +2683,19 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -2694,663 +2706,663 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>130</v>
+        <v>28</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>130</v>
+        <v>28</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>130</v>
+        <v>28</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B94" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="B94" s="2" t="s">
-        <v>135</v>
-      </c>
       <c r="C94" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>130</v>
+        <v>28</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>27</v>
+        <v>136</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>30</v>
+        <v>140</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>146</v>
+        <v>27</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>150</v>
+        <v>30</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>151</v>
+        <v>130</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>127</v>
+        <v>147</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>152</v>
+        <v>132</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>129</v>
+        <v>148</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>151</v>
+        <v>130</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>131</v>
+        <v>149</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>152</v>
+        <v>132</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>132</v>
+        <v>150</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B105" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="B105" s="2" t="s">
-        <v>133</v>
-      </c>
       <c r="C105" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E105" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="E105" s="2" t="s">
+      <c r="F105" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G105" s="2" t="s">
         <v>134</v>
-      </c>
-      <c r="F105" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G105" s="2" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>151</v>
+        <v>130</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>135</v>
+        <v>153</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>152</v>
+        <v>132</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>136</v>
+        <v>154</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>27</v>
+        <v>136</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>30</v>
+        <v>140</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>146</v>
+        <v>27</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>150</v>
+        <v>30</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>28</v>
+        <v>134</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>28</v>
+        <v>134</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>28</v>
+        <v>134</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B118" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="B118" s="2" t="s">
-        <v>161</v>
-      </c>
       <c r="C118" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>28</v>
+        <v>134</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
@@ -3361,19 +3373,19 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
@@ -3384,22 +3396,22 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="G121" s="2" t="s">
         <v>28</v>
@@ -3407,19 +3419,19 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
@@ -3430,22 +3442,22 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="G123" s="2" t="s">
         <v>28</v>
@@ -3453,22 +3465,22 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>49</v>
+        <v>169</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>50</v>
+        <v>170</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="G124" s="2" t="s">
         <v>28</v>
@@ -3476,209 +3488,301 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>173</v>
+        <v>157</v>
       </c>
       <c r="B125" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D125" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="C125" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D125" s="2" t="s">
-        <v>174</v>
-      </c>
       <c r="E125" s="2" t="s">
-        <v>160</v>
+        <v>172</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>10</v>
+        <v>56</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>130</v>
+        <v>28</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B126" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="B126" s="2" t="s">
-        <v>161</v>
-      </c>
       <c r="C126" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D126" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="E126" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="E126" s="2" t="s">
-        <v>162</v>
-      </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>130</v>
+        <v>28</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>173</v>
+        <v>157</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>163</v>
+        <v>175</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>174</v>
+        <v>159</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>164</v>
+        <v>176</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>10</v>
+        <v>56</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>130</v>
+        <v>28</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>173</v>
+        <v>157</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>165</v>
+        <v>49</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>174</v>
+        <v>159</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>166</v>
+        <v>50</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>10</v>
+        <v>56</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>130</v>
+        <v>28</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="B133" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C133" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D133" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="E133" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="F133" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G133" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="B134" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="B133" s="2" t="s">
+      <c r="C134" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D134" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="E134" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="F134" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G134" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="C133" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D133" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="E133" s="2" t="s">
+      <c r="B135" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C135" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D135" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="F133" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G133" s="2" t="s">
-        <v>130</v>
+      <c r="E135" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="F135" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G135" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="B136" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="C136" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D136" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="E136" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="F136" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G136" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="B137" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C137" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D137" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="E137" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="F137" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G137" s="2" t="s">
+        <v>134</v>
       </c>
     </row>
   </sheetData>
